--- a/simulation_data/two_step_algorithm/2s_error_level_10_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_10_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>86.387429476419</v>
+        <v>94.98686343550636</v>
       </c>
       <c r="D2" t="n">
-        <v>30.25674603462451</v>
+        <v>27.35377960499169</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>97.00285022749107</v>
+        <v>91.27947349984829</v>
       </c>
       <c r="D3" t="n">
-        <v>28.21758937278587</v>
+        <v>26.98468559033247</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.61717139181768</v>
+        <v>89.97638787664987</v>
       </c>
       <c r="D4" t="n">
-        <v>28.23571191674801</v>
+        <v>28.38072819679769</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.56115131979749</v>
+        <v>89.54419637760832</v>
       </c>
       <c r="D5" t="n">
-        <v>27.24367312183564</v>
+        <v>30.0112896061652</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.98857729309937</v>
+        <v>85.6030558569832</v>
       </c>
       <c r="D6" t="n">
-        <v>24.32543147658582</v>
+        <v>24.81811878490887</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>82.84934256469334</v>
+        <v>87.96083632379897</v>
       </c>
       <c r="D7" t="n">
-        <v>28.47715158040026</v>
+        <v>26.08923891148331</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.82281636823434</v>
+        <v>94.20985881507144</v>
       </c>
       <c r="D8" t="n">
-        <v>26.43573769526848</v>
+        <v>24.47852568246478</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>87.03182718541761</v>
+        <v>87.31632946099575</v>
       </c>
       <c r="D9" t="n">
-        <v>30.45092878695765</v>
+        <v>24.81108419461263</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.70261539417372</v>
+        <v>87.08421413629202</v>
       </c>
       <c r="D10" t="n">
-        <v>31.26458641483899</v>
+        <v>26.97102271386345</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.45805000882807</v>
+        <v>79.270806363162</v>
       </c>
       <c r="D11" t="n">
-        <v>28.08909262087638</v>
+        <v>26.87299123406995</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.97950085509308</v>
+        <v>78.68522914351934</v>
       </c>
       <c r="D12" t="n">
-        <v>28.42172494957082</v>
+        <v>26.85169704455713</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.27119299262235</v>
+        <v>78.80258464848649</v>
       </c>
       <c r="D13" t="n">
-        <v>23.76646257698975</v>
+        <v>27.01890018260646</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.72654166848307</v>
+        <v>81.20027790945542</v>
       </c>
       <c r="D14" t="n">
-        <v>23.9783708477115</v>
+        <v>23.42731359415141</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.91271650065214</v>
+        <v>74.10183770974035</v>
       </c>
       <c r="D15" t="n">
-        <v>25.07836679618454</v>
+        <v>26.05262747017936</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>83.42832243280223</v>
+        <v>73.48107513799832</v>
       </c>
       <c r="D16" t="n">
-        <v>28.94690147282238</v>
+        <v>25.45345326796059</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.43835433564068</v>
+        <v>79.54344782521396</v>
       </c>
       <c r="D17" t="n">
-        <v>25.30341339475115</v>
+        <v>26.48240890977968</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.88014414051794</v>
+        <v>75.12408187200373</v>
       </c>
       <c r="D18" t="n">
-        <v>24.94154901632309</v>
+        <v>26.42236604937891</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.86386909379668</v>
+        <v>74.50622378122669</v>
       </c>
       <c r="D19" t="n">
-        <v>27.94445423968354</v>
+        <v>24.23486074622073</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.3186326666726</v>
+        <v>70.19895156371199</v>
       </c>
       <c r="D20" t="n">
-        <v>27.69100929662735</v>
+        <v>26.80622814824859</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.84683464483271</v>
+        <v>71.91852050954483</v>
       </c>
       <c r="D21" t="n">
-        <v>25.13611918117197</v>
+        <v>25.63698443816461</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5254861436196</v>
+        <v>65.99069082495171</v>
       </c>
       <c r="D22" t="n">
-        <v>26.9867616009862</v>
+        <v>26.00969953326419</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>74.30782834248681</v>
+        <v>69.99502556140403</v>
       </c>
       <c r="D23" t="n">
-        <v>24.11075912831302</v>
+        <v>26.95876307486008</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>71.19475599007836</v>
+        <v>65.75887622699889</v>
       </c>
       <c r="D24" t="n">
-        <v>25.91972167307445</v>
+        <v>27.15659521176952</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.96635663021375</v>
+        <v>70.15407822559412</v>
       </c>
       <c r="D25" t="n">
-        <v>28.52206252763937</v>
+        <v>25.72524835870078</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>69.54263002901892</v>
+        <v>64.99907766036036</v>
       </c>
       <c r="D26" t="n">
-        <v>25.41397883759005</v>
+        <v>26.34709409259484</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.40243406088929</v>
+        <v>62.691451325948</v>
       </c>
       <c r="D27" t="n">
-        <v>28.61011480397902</v>
+        <v>27.06546538593304</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.45752675370771</v>
+        <v>66.64524036389712</v>
       </c>
       <c r="D28" t="n">
-        <v>28.58652956075245</v>
+        <v>23.92624378496152</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>60.30936836880303</v>
+        <v>63.86126368380317</v>
       </c>
       <c r="D29" t="n">
-        <v>25.33520764869133</v>
+        <v>25.82099111038545</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.31595693850344</v>
+        <v>64.67518471133262</v>
       </c>
       <c r="D30" t="n">
-        <v>27.83944179043053</v>
+        <v>24.63372419990458</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.90511016056758</v>
+        <v>62.66678757614463</v>
       </c>
       <c r="D31" t="n">
-        <v>26.87684476493702</v>
+        <v>24.27612635210459</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.20974235941439</v>
+        <v>61.40603662550423</v>
       </c>
       <c r="D32" t="n">
-        <v>26.00692504162352</v>
+        <v>27.96491947800762</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.35490823819556</v>
+        <v>63.59716920254843</v>
       </c>
       <c r="D33" t="n">
-        <v>25.49058121505128</v>
+        <v>26.57029447835616</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>60.96286883496213</v>
+        <v>58.60277933787367</v>
       </c>
       <c r="D34" t="n">
-        <v>31.0183482382123</v>
+        <v>27.67590148547988</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.28078747996427</v>
+        <v>57.20374550151911</v>
       </c>
       <c r="D35" t="n">
-        <v>27.10318127873801</v>
+        <v>25.2751399156152</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>53.42962686742909</v>
+        <v>53.92830781476843</v>
       </c>
       <c r="D36" t="n">
-        <v>26.57594228343898</v>
+        <v>23.55914371146541</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.96224358418046</v>
+        <v>57.1987955790595</v>
       </c>
       <c r="D37" t="n">
-        <v>24.59807793354147</v>
+        <v>27.69072749515784</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.19721738819792</v>
+        <v>53.68346117944732</v>
       </c>
       <c r="D38" t="n">
-        <v>21.41553045956444</v>
+        <v>27.4699686085391</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>48.55783270065077</v>
+        <v>55.67156437823749</v>
       </c>
       <c r="D39" t="n">
-        <v>24.423055438393</v>
+        <v>26.54881067629308</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>59.01025852211382</v>
+        <v>54.59461978175371</v>
       </c>
       <c r="D40" t="n">
-        <v>26.0849993910534</v>
+        <v>22.22186082398425</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.22438405511771</v>
+        <v>47.50897981296404</v>
       </c>
       <c r="D41" t="n">
-        <v>28.08994332419472</v>
+        <v>27.512298981556</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>56.82047072033603</v>
+        <v>48.79226573043995</v>
       </c>
       <c r="D42" t="n">
-        <v>26.15714246212551</v>
+        <v>25.76150972017549</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.15769733963307</v>
+        <v>48.75738918436108</v>
       </c>
       <c r="D43" t="n">
-        <v>26.43095142891301</v>
+        <v>27.01977018115877</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.14473201606226</v>
+        <v>50.08887853060003</v>
       </c>
       <c r="D44" t="n">
-        <v>25.71183805979924</v>
+        <v>28.23679875879027</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>49.73582522259616</v>
+        <v>43.30780774777232</v>
       </c>
       <c r="D45" t="n">
-        <v>27.94328146879992</v>
+        <v>26.06882876164059</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>50.03140997050985</v>
+        <v>41.68374143269517</v>
       </c>
       <c r="D46" t="n">
-        <v>28.99913853715912</v>
+        <v>26.41754496232502</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>49.07396111926671</v>
+        <v>44.45850799393961</v>
       </c>
       <c r="D47" t="n">
-        <v>27.16364933039967</v>
+        <v>25.8819550402577</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.08250506969635</v>
+        <v>38.50620175620079</v>
       </c>
       <c r="D48" t="n">
-        <v>28.15829353572282</v>
+        <v>26.5764618013109</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.26954248755172</v>
+        <v>42.19258148592952</v>
       </c>
       <c r="D49" t="n">
-        <v>27.29833265109359</v>
+        <v>25.05382603182337</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.64308960094115</v>
+        <v>42.03186293628784</v>
       </c>
       <c r="D50" t="n">
-        <v>27.63785644927453</v>
+        <v>26.04697202614916</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.53664086155963</v>
+        <v>40.44785092547342</v>
       </c>
       <c r="D51" t="n">
-        <v>26.83074119768027</v>
+        <v>25.87511242464053</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.68833146130979</v>
+        <v>42.32624120876543</v>
       </c>
       <c r="D52" t="n">
-        <v>25.91680520947121</v>
+        <v>26.06898316099984</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>42.29911029129608</v>
+        <v>37.82369914788045</v>
       </c>
       <c r="D53" t="n">
-        <v>28.65470761426231</v>
+        <v>26.70977106113342</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.6947129493125</v>
+        <v>32.98673724182974</v>
       </c>
       <c r="D54" t="n">
-        <v>26.88034961649123</v>
+        <v>23.91286236017546</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>41.18533500015896</v>
+        <v>37.42468144108825</v>
       </c>
       <c r="D55" t="n">
-        <v>27.56124252435648</v>
+        <v>27.6939522984536</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>38.58177611370629</v>
+        <v>35.55847640213381</v>
       </c>
       <c r="D56" t="n">
-        <v>22.09121396885603</v>
+        <v>24.19449010123009</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.86595912742318</v>
+        <v>36.88609097332165</v>
       </c>
       <c r="D57" t="n">
-        <v>26.53954919116092</v>
+        <v>24.35617431817553</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>36.00068291062789</v>
+        <v>34.84388609988477</v>
       </c>
       <c r="D58" t="n">
-        <v>26.0445896449446</v>
+        <v>26.41405531095097</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>29.25638559594862</v>
+        <v>29.80423055626306</v>
       </c>
       <c r="D59" t="n">
-        <v>26.64070569578689</v>
+        <v>19.90017301408562</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>39.34355241267108</v>
+        <v>32.57493459029069</v>
       </c>
       <c r="D60" t="n">
-        <v>26.86929418849238</v>
+        <v>27.59184183810567</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>32.42503453048253</v>
+        <v>31.59278042999391</v>
       </c>
       <c r="D61" t="n">
-        <v>26.25043325810936</v>
+        <v>28.08736760225947</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.21665312230206</v>
+        <v>28.73637838885371</v>
       </c>
       <c r="D62" t="n">
-        <v>25.53020404705214</v>
+        <v>27.3836082839359</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.87430046428134</v>
+        <v>26.85970314250703</v>
       </c>
       <c r="D63" t="n">
-        <v>27.87268287935613</v>
+        <v>30.35215100807669</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.65442629623949</v>
+        <v>32.32819504625891</v>
       </c>
       <c r="D64" t="n">
-        <v>25.01541135984574</v>
+        <v>27.52896774361071</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.95198735672281</v>
+        <v>29.84288928711404</v>
       </c>
       <c r="D65" t="n">
-        <v>25.06209207548902</v>
+        <v>24.95450675728839</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>19.33372919020871</v>
+        <v>24.37798565967227</v>
       </c>
       <c r="D66" t="n">
-        <v>26.83520356537956</v>
+        <v>25.0627776594098</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>20.23291255160626</v>
+        <v>27.1565585383881</v>
       </c>
       <c r="D67" t="n">
-        <v>26.10517794178651</v>
+        <v>24.6133297769909</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>28.79755614217847</v>
+        <v>26.57977378894739</v>
       </c>
       <c r="D68" t="n">
-        <v>25.93320934743737</v>
+        <v>21.72148539070092</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>26.77846896516483</v>
+        <v>19.11571885032578</v>
       </c>
       <c r="D69" t="n">
-        <v>25.39316336263312</v>
+        <v>29.38489144949206</v>
       </c>
     </row>
   </sheetData>
